--- a/SeleniumProject/DataTests.xlsx
+++ b/SeleniumProject/DataTests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\QA Course\ProjectSelenium21.06.21\SeleniumProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F418668-7BFA-431E-8D19-B37641508418}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C95DF7C3-215B-4C63-918C-2B4ED442FBCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1C13D621-F14D-4841-B656-F1E6A527AE2E}"/>
   </bookViews>
@@ -445,7 +445,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -506,14 +506,14 @@
         <v>14</v>
       </c>
       <c r="D3" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E3" s="3">
         <v>359.98</v>
       </c>
       <c r="F3">
         <f>E3/D3</f>
-        <v>179.99</v>
+        <v>359.98</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -527,14 +527,14 @@
         <v>15</v>
       </c>
       <c r="D4" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E4" s="3">
         <v>1799.96</v>
       </c>
       <c r="F4">
         <f>E4/D4</f>
-        <v>449.99</v>
+        <v>599.98666666666668</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -545,7 +545,7 @@
       <c r="C5" s="1"/>
       <c r="D5" s="1">
         <f>SUM(D2:D4)</f>
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E5" s="3">
         <f>SUM(E2:E4)</f>

--- a/SeleniumProject/DataTests.xlsx
+++ b/SeleniumProject/DataTests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\QA Course\ProjectSelenium21.06.21\SeleniumProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C95DF7C3-215B-4C63-918C-2B4ED442FBCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FD765A2-1A07-47D7-839F-7D56F0F49C91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1C13D621-F14D-4841-B656-F1E6A527AE2E}"/>
   </bookViews>
@@ -66,13 +66,13 @@
     <t>HP STREAM - 11-D020NR LAPTOP</t>
   </si>
   <si>
-    <t>GRAY</t>
-  </si>
-  <si>
     <t>PURPLE</t>
   </si>
   <si>
     <t>BLUE</t>
+  </si>
+  <si>
+    <t>RED</t>
   </si>
 </sst>
 </file>
@@ -116,7 +116,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -128,6 +128,10 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -445,12 +449,13 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="30.625" customWidth="1"/>
+    <col min="4" max="4" width="9" style="6"/>
     <col min="5" max="5" width="10.625" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -464,7 +469,7 @@
       <c r="C1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="5" t="s">
         <v>6</v>
       </c>
       <c r="E1" s="3" t="s">
@@ -482,9 +487,9 @@
         <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="1">
+        <v>15</v>
+      </c>
+      <c r="D2" s="5">
         <v>1</v>
       </c>
       <c r="E2" s="3">
@@ -503,17 +508,17 @@
         <v>12</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="1">
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="D3" s="5">
+        <v>2</v>
       </c>
       <c r="E3" s="3">
         <v>359.98</v>
       </c>
       <c r="F3">
         <f>E3/D3</f>
-        <v>359.98</v>
+        <v>179.99</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -524,17 +529,17 @@
         <v>11</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="1">
-        <v>3</v>
+        <v>14</v>
+      </c>
+      <c r="D4" s="5">
+        <v>4</v>
       </c>
       <c r="E4" s="3">
         <v>1799.96</v>
       </c>
       <c r="F4">
         <f>E4/D4</f>
-        <v>599.98666666666668</v>
+        <v>449.99</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -543,9 +548,9 @@
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
-      <c r="D5" s="1">
+      <c r="D5" s="5">
         <f>SUM(D2:D4)</f>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E5" s="3">
         <f>SUM(E2:E4)</f>

--- a/SeleniumProject/DataTests.xlsx
+++ b/SeleniumProject/DataTests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\QA Course\ProjectSelenium21.06.21\SeleniumProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FD765A2-1A07-47D7-839F-7D56F0F49C91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{288960B6-E7B1-4FF8-887E-9538445752BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1C13D621-F14D-4841-B656-F1E6A527AE2E}"/>
   </bookViews>
@@ -449,7 +449,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/SeleniumProject/DataTests.xlsx
+++ b/SeleniumProject/DataTests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\QA Course\ProjectSelenium21.06.21\SeleniumProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{288960B6-E7B1-4FF8-887E-9538445752BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F4988AF-BFDA-45F7-B45A-ADF27AD39D74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1C13D621-F14D-4841-B656-F1E6A527AE2E}"/>
   </bookViews>
@@ -60,19 +60,19 @@
     <t>HP PAVILION 15T TOUCH LAPTOP</t>
   </si>
   <si>
-    <t>HP PAVILION 15Z TOUCH LAPTOP</t>
-  </si>
-  <si>
     <t>HP STREAM - 11-D020NR LAPTOP</t>
   </si>
   <si>
     <t>PURPLE</t>
   </si>
   <si>
-    <t>BLUE</t>
-  </si>
-  <si>
     <t>RED</t>
+  </si>
+  <si>
+    <t>HP PRO TABLET 608 G1</t>
+  </si>
+  <si>
+    <t>BLACK</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="235" zoomScaleNormal="235" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -484,7 +484,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>15</v>
@@ -493,10 +493,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="3">
-        <v>519.99</v>
+        <v>1916</v>
       </c>
       <c r="F2">
-        <f>E2/D2</f>
+        <f>E4/D2</f>
         <v>519.99</v>
       </c>
     </row>
@@ -505,10 +505,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>13</v>
       </c>
       <c r="D3" s="5">
         <v>2</v>
@@ -526,35 +526,33 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D4" s="5">
         <v>4</v>
       </c>
       <c r="E4" s="3">
-        <v>1799.96</v>
+        <v>519.99</v>
       </c>
       <c r="F4">
-        <f>E4/D4</f>
-        <v>449.99</v>
+        <f>E2/D4</f>
+        <v>479</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
       <c r="D5" s="5">
         <f>SUM(D2:D4)</f>
         <v>7</v>
       </c>
       <c r="E5" s="3">
-        <f>SUM(E2:E4)</f>
-        <v>2679.9300000000003</v>
+        <f>SUM(E2:E3)</f>
+        <v>2275.98</v>
       </c>
     </row>
   </sheetData>
